--- a/biology/Zoologie/Alburnus_mentoides/Alburnus_mentoides.xlsx
+++ b/biology/Zoologie/Alburnus_mentoides/Alburnus_mentoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alburnus mentoides est un poisson d'eau douce de la famille des Cyprinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus hohenackeri est endémique d'Ukraine[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus hohenackeri est endémique d'Ukraine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Alburnus mentoides est de 130 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Alburnus mentoides est de 130 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kessler, 1859 : Auszüge aus dem Berichte über die nordwestlichen Küsten des schwarzen Meeres und durch die westliche Krym unternommene Reise. Bulletin de la Société Impériale des Naturalistes de Moscou, vol. 32, p. 520-546 (texte intégral).</t>
         </is>
